--- a/Data/Murine Data.xlsx
+++ b/Data/Murine Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\OneDrive - University of Tennessee\VPC\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/VPC/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31611C1-14F0-443C-9483-86C33E6F43E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{32A41FBD-9EE4-4BC5-B3BE-B27F5F771533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4981DAC9-D41F-4BD6-B3C1-E9B2524AE258}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,6 +145,9 @@
     <t>MA</t>
   </si>
   <si>
+    <t>CD8T</t>
+  </si>
+  <si>
     <t>CD4T</t>
   </si>
   <si>
@@ -181,9 +184,6 @@
     <t>Fi</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>TIME</t>
   </si>
   <si>
@@ -196,13 +196,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>IFNA</t>
+  </si>
+  <si>
     <t>IFNB</t>
   </si>
   <si>
     <t>IFNY</t>
-  </si>
-  <si>
-    <t>IFNA</t>
   </si>
   <si>
     <t>MIP1A</t>
@@ -1727,6 +1727,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO1048576" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:AO1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -1743,7 +1747,7 @@
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MCP1" dataDxfId="57"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="N" dataDxfId="56"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="MI" dataDxfId="55"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="E" dataDxfId="54"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="CD8TE" dataDxfId="54"/>
     <tableColumn id="6" xr3:uid="{DB74CEBD-F3F5-45FE-AB11-25D72C72CA02}" name="NFA" dataDxfId="53"/>
     <tableColumn id="43" xr3:uid="{75143DFC-E618-402F-B0D7-26F13F67D78E}" name="pDC" dataDxfId="52">
       <calculatedColumnFormula>LOG10(10^#REF!+10^#REF!)</calculatedColumnFormula>
@@ -1765,7 +1769,7 @@
     <tableColumn id="31" xr3:uid="{CE26C631-E891-4F2B-99FD-982B1C60956B}" name="MT" dataDxfId="37"/>
     <tableColumn id="32" xr3:uid="{9E397993-C9DB-4E70-AA8A-093AB7223DFD}" name="MA" dataDxfId="36"/>
     <tableColumn id="33" xr3:uid="{790EBDC4-58EC-464E-8747-F687E77365AA}" name="MI2" dataDxfId="35"/>
-    <tableColumn id="34" xr3:uid="{55E0E646-49DE-40A8-8D7B-D4E7A7B33BEF}" name="CD8TE" dataDxfId="34"/>
+    <tableColumn id="34" xr3:uid="{55E0E646-49DE-40A8-8D7B-D4E7A7B33BEF}" name="CD8T" dataDxfId="34"/>
     <tableColumn id="35" xr3:uid="{040D66C7-4058-4D3C-B50E-173894207447}" name="CD4T" dataDxfId="33"/>
     <tableColumn id="36" xr3:uid="{99226EA1-AF26-4B8C-B153-11F7FA09E47E}" name="NK" dataDxfId="32"/>
     <tableColumn id="37" xr3:uid="{CD489C00-214C-4A95-9C0D-56D23F3BE671}" name="NKIFNG" dataDxfId="31"/>
@@ -2100,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,13 +2130,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>54</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -2153,19 +2157,19 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="N1" t="s">
         <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R1" t="s">
         <v>51</v>
@@ -2210,34 +2214,34 @@
         <v>35</v>
       </c>
       <c r="AF1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO1" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN1" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO1" s="15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">

--- a/Data/Murine Data.xlsx
+++ b/Data/Murine Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/VPC/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\OneDrive - University of Tennessee\VPC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{32A41FBD-9EE4-4BC5-B3BE-B27F5F771533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4981DAC9-D41F-4BD6-B3C1-E9B2524AE258}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7CA5F1-4D90-4D26-A755-755B3446EE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-2490" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamics" sheetId="1" r:id="rId1"/>
@@ -184,9 +184,6 @@
     <t>Fi</t>
   </si>
   <si>
-    <t>TIME</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t>CD8TE</t>
+  </si>
+  <si>
+    <t>DAY</t>
   </si>
 </sst>
 </file>
@@ -1727,15 +1727,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO1048576" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:AO1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="41">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TIME" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DAY" dataDxfId="66"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ID" dataDxfId="65"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="V" dataDxfId="64"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="IFNA" dataDxfId="63"/>
@@ -2105,7 +2101,7 @@
   <dimension ref="A1:AO131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,22 +2117,22 @@
   <sheetData>
     <row r="1" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>55</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -2157,7 +2153,7 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N1" t="s">
         <v>9</v>
@@ -2172,7 +2168,7 @@
         <v>48</v>
       </c>
       <c r="R1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>25</v>
@@ -2199,10 +2195,10 @@
         <v>33</v>
       </c>
       <c r="AA1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>57</v>
       </c>
       <c r="AC1" s="15" t="s">
         <v>32</v>
@@ -2297,7 +2293,7 @@
         <v>3.4425558208444169</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S2" s="13">
         <v>0.95230800000000004</v>

--- a/Data/Murine Data.xlsx
+++ b/Data/Murine Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\OneDrive - University of Tennessee\VPC\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/VPC/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7CA5F1-4D90-4D26-A755-755B3446EE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{32A41FBD-9EE4-4BC5-B3BE-B27F5F771533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{447D39A7-E23D-49EF-A21A-788E2AAD815B}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-2490" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1727,6 +1727,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO1048576" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:AO1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -2101,7 +2105,7 @@
   <dimension ref="A1:AO131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Murine Data.xlsx
+++ b/Data/Murine Data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/VPC/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\Documents\GitHub\VPC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{32A41FBD-9EE4-4BC5-B3BE-B27F5F771533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{447D39A7-E23D-49EF-A21A-788E2AAD815B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F27426-074C-4CBA-8B13-6AA5EB01C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-2490" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12015" yWindow="1575" windowWidth="12225" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamics" sheetId="1" r:id="rId1"/>
-    <sheet name="Pathology" sheetId="3" r:id="rId2"/>
-    <sheet name="Symptoms" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Pathology" sheetId="3" r:id="rId3"/>
+    <sheet name="Symptoms" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>Time</t>
   </si>
@@ -213,6 +214,9 @@
   <si>
     <t>DAY</t>
   </si>
+  <si>
+    <t>Murine Data</t>
+  </si>
 </sst>
 </file>
 
@@ -221,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,8 +396,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,8 +582,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -689,6 +704,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -735,7 +836,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -771,6 +872,51 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1727,10 +1873,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO1048576" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:AO1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -2104,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17261,6 +17403,173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FBA28D-DB1B-48D3-B84A-392CF00064D0}">
+  <dimension ref="L6:N20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="28"/>
+    </row>
+    <row r="8" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L9" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L11" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L12" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L13" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L14" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L19" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="12:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L7:N7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BE1891-B197-490C-B783-4F6BD7AA5855}">
   <dimension ref="A1:O66"/>
   <sheetViews>
@@ -19751,7 +20060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BF6FE7-CE9E-429B-941D-2C0547FC4E1C}">
   <dimension ref="A1:E12"/>
   <sheetViews>

--- a/Data/Murine Data.xlsx
+++ b/Data/Murine Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\Documents\GitHub\VPC\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/GitHub/VirtualPatient/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F27426-074C-4CBA-8B13-6AA5EB01C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F5F27426-074C-4CBA-8B13-6AA5EB01C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51206945-5876-4693-9EFD-24F74C170B30}"/>
   <bookViews>
-    <workbookView xWindow="12015" yWindow="1575" windowWidth="12225" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-1920" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamics" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t>Time</t>
   </si>
@@ -185,9 +185,6 @@
     <t>Fi</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>IFNAI1</t>
   </si>
   <si>
@@ -216,6 +213,15 @@
   </si>
   <si>
     <t>Murine Data</t>
+  </si>
+  <si>
+    <t>VOLUNTEER</t>
+  </si>
+  <si>
+    <t>CD8T_Tot</t>
+  </si>
+  <si>
+    <t>IFNG</t>
   </si>
 </sst>
 </file>
@@ -873,29 +879,41 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -905,18 +923,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1873,23 +1879,27 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AO1048576" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:AO1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DAY" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ID" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="VOLUNTEER" dataDxfId="65"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="V" dataDxfId="64"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="IFNA" dataDxfId="63"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="IFNB" dataDxfId="62"/>
-    <tableColumn id="19" xr3:uid="{6E58B259-F23B-4A49-BB69-CC34E338EC60}" name="IFNY" dataDxfId="61"/>
+    <tableColumn id="19" xr3:uid="{6E58B259-F23B-4A49-BB69-CC34E338EC60}" name="IFNG" dataDxfId="61"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="IL6" dataDxfId="60"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="GMCSF" dataDxfId="59"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="TNFA" dataDxfId="58"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MCP1" dataDxfId="57"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="N" dataDxfId="56"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="MI" dataDxfId="55"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="CD8TE" dataDxfId="54"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="CD8T_Tot" dataDxfId="54"/>
     <tableColumn id="6" xr3:uid="{DB74CEBD-F3F5-45FE-AB11-25D72C72CA02}" name="NFA" dataDxfId="53"/>
     <tableColumn id="43" xr3:uid="{75143DFC-E618-402F-B0D7-26F13F67D78E}" name="pDC" dataDxfId="52">
       <calculatedColumnFormula>LOG10(10^#REF!+10^#REF!)</calculatedColumnFormula>
@@ -2246,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO131"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:AO1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,22 +2273,22 @@
   <sheetData>
     <row r="1" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
       <c r="F1" s="17" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -2299,7 +2309,7 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N1" t="s">
         <v>9</v>
@@ -2314,7 +2324,7 @@
         <v>48</v>
       </c>
       <c r="R1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>25</v>
@@ -2341,10 +2351,10 @@
         <v>33</v>
       </c>
       <c r="AA1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="AC1" s="15" t="s">
         <v>32</v>
@@ -2439,7 +2449,7 @@
         <v>3.4425558208444169</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S2" s="13">
         <v>0.95230800000000004</v>
@@ -17406,7 +17416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FBA28D-DB1B-48D3-B84A-392CF00064D0}">
   <dimension ref="L6:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7:N20"/>
     </sheetView>
   </sheetViews>
@@ -17414,15 +17424,15 @@
   <sheetData>
     <row r="6" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="12:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L7" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="28"/>
+      <c r="L7" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="N7" s="32"/>
     </row>
     <row r="8" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L8" s="29" t="s">
-        <v>52</v>
+      <c r="L8" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>47</v>
@@ -17433,7 +17443,7 @@
     </row>
     <row r="9" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L9" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" s="18" t="s">
         <v>48</v>
@@ -17443,21 +17453,21 @@
       </c>
     </row>
     <row r="10" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L10" s="30" t="s">
-        <v>54</v>
+      <c r="L10" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N10" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="28" t="s">
         <v>25</v>
       </c>
       <c r="N11" s="23" t="s">
@@ -17465,10 +17475,10 @@
       </c>
     </row>
     <row r="12" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L12" s="29" t="s">
+      <c r="L12" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="31" t="s">
+      <c r="M12" s="28" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="23" t="s">
@@ -17476,10 +17486,10 @@
       </c>
     </row>
     <row r="13" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="31" t="s">
+      <c r="M13" s="28" t="s">
         <v>27</v>
       </c>
       <c r="N13" s="22" t="s">
@@ -17487,10 +17497,10 @@
       </c>
     </row>
     <row r="14" spans="12:14" x14ac:dyDescent="0.25">
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="31" t="s">
+      <c r="M14" s="28" t="s">
         <v>28</v>
       </c>
       <c r="N14" s="22" t="s">
@@ -17501,7 +17511,7 @@
       <c r="L15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="31" t="s">
+      <c r="M15" s="28" t="s">
         <v>29</v>
       </c>
       <c r="N15" s="22" t="s">
@@ -17512,7 +17522,7 @@
       <c r="L16" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="31" t="s">
+      <c r="M16" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N16" s="22" t="s">
@@ -17521,7 +17531,7 @@
     </row>
     <row r="17" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L17" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M17" s="19" t="s">
         <v>31</v>
@@ -17546,18 +17556,18 @@
         <v>46</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N19" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="12:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="29" t="s">
         <v>32</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N20" s="25"/>
     </row>
